--- a/output/Analysing.xlsx
+++ b/output/Analysing.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017 - BM25 Tuning" sheetId="1" r:id="rId1"/>
-    <sheet name="2018 - BM25 Tuning" sheetId="2" r:id="rId2"/>
+    <sheet name="2018 - BM25 Tuning" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>B</t>
   </si>
@@ -44,6 +44,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,17 +122,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +517,401 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MAP in 2018 training data by B parameter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018 - BM25 Tuning'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2018 - BM25 Tuning'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018 - BM25 Tuning'!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.12590000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD15-49AD-A6EB-01AF5BF7CCB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2021145023"/>
+        <c:axId val="2021149599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2021145023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021149599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021149599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021145023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1056,6 +1454,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1075,6 +1976,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1356,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1366,22 +2304,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -1425,7 +2363,7 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.1022</v>
       </c>
       <c r="D4" s="3">
@@ -1443,7 +2381,7 @@
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1517,12 +2455,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.05859375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>0.5282</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/Analysing.xlsx
+++ b/output/Analysing.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647"/>
   </bookViews>
   <sheets>
     <sheet name="2017 - BM25 Tuning" sheetId="1" r:id="rId1"/>
     <sheet name="2018 - BM25 Tuning" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>B</t>
   </si>
@@ -39,15 +40,54 @@
   <si>
     <t>Tuning B parameter in BM25 (Boolean query)</t>
   </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Title based</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>BM25</t>
+  </si>
+  <si>
+    <t>Query Type</t>
+  </si>
+  <si>
+    <t>Execution time</t>
+  </si>
+  <si>
+    <t>Execution time:</t>
+  </si>
+  <si>
+    <t>IDF</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Reduction Ranking</t>
+  </si>
+  <si>
+    <t>IDFr</t>
+  </si>
+  <si>
+    <t>Tuning R parameter in IDFr (Title based query)</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +106,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,10 +166,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,13 +178,20 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,8 +716,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12570000000000001</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.12590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O6"/>
+  <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2304,22 +2371,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -2441,6 +2508,246 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7">
+        <v>2.5694444444444447E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B24:F24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="18.05859375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.45E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.5272</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.5282</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4.5138888888888888E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2453,140 +2760,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O6"/>
+  <dimension ref="C2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.05859375" customWidth="1"/>
+    <col min="3" max="3" width="13.17578125" customWidth="1"/>
+    <col min="4" max="4" width="13.87890625" customWidth="1"/>
+    <col min="5" max="5" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.05859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="J2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>0.12590000000000001</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="E5" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>0.5282</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="J2:O2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/Analysing.xlsx
+++ b/output/Analysing.xlsx
@@ -119,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,15 +185,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,7 +250,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>MAP in 2017 training data by B parameter</a:t>
+              <a:t>2017 training data by B parameter</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Title based Query)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -607,7 +623,387 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>MAP in 2018 training data by B parameter</a:t>
+              <a:t>2017 training data by B parameter</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Boolean Query)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017 - BM25 Tuning'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017 - BM25 Tuning'!$K$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017 - BM25 Tuning'!$K$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.10879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6799999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B928-4F32-9BF8-5AF17977E421}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2021145023"/>
+        <c:axId val="2021149599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2021145023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021149599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021149599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021145023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2018 training data by B parameter</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Title based Query)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -938,6 +1334,379 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2018 training data by B parameter</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Boolean Query)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018 - BM25 Tuning'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2018 - BM25 Tuning'!$K$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018 - BM25 Tuning'!$K$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11310000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-13F5-46A9-B690-ED3B6874CFB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2021145023"/>
+        <c:axId val="2021149599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2021145023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021149599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021149599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021145023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1018,6 +1787,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1522,6 +2371,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2051,6 +3906,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2088,6 +3975,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2361,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2371,22 +4290,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -2448,11 +4367,21 @@
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="K4" s="12">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.1011</v>
+      </c>
+      <c r="O4" s="3">
+        <v>9.6799999999999997E-2</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
@@ -2476,10 +4405,21 @@
       <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="K5" s="3">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="L5" s="11">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>6.9500000000000006E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B6" s="3" t="s">
@@ -2503,45 +4443,55 @@
       <c r="J6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="K6" s="3">
+        <v>0.47989999999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.4773</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.47160000000000002</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.4672</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.46260000000000001</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="6">
         <v>2.5694444444444447E-2</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>0.3</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>0.5</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>0.8</v>
       </c>
       <c r="F27" s="2"/>
@@ -2594,7 +4544,7 @@
   <dimension ref="A2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2603,22 +4553,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -2680,11 +4630,21 @@
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="K4" s="13">
+        <v>0.128</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.1196</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.11310000000000001</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
@@ -2708,10 +4668,21 @@
       <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="K5" s="3">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="L5">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5.6099999999999997E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B6" s="3" t="s">
@@ -2735,17 +4706,27 @@
       <c r="J6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="K6" s="3">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.52580000000000005</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.51759999999999995</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.50960000000000005</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
@@ -2777,19 +4758,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2800,7 +4781,7 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>0.39930555555555558</v>
       </c>
       <c r="F3">
@@ -2814,7 +4795,7 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0.48819444444444443</v>
       </c>
       <c r="F4" t="s">

--- a/output/Analysing.xlsx
+++ b/output/Analysing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017 - BM25 Tuning" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>B</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Tuning B parameter in BM25 (Boolean query)</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Title based</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>Execution time</t>
-  </si>
-  <si>
-    <t>Execution time:</t>
   </si>
   <si>
     <t>IDF</t>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>Tuning R parameter in KLI (Title based query)</t>
+  </si>
+  <si>
+    <t>BM25 (b=0.0)</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,12 +171,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,16 +196,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,6 +1013,727 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>2017 IDFr</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (Title based query)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017 - BM25 Tuning'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017 - BM25 Tuning'!$C$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017 - BM25 Tuning'!$C$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-658E-4787-BE12-F429924FD2A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2021145023"/>
+        <c:axId val="2021149599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2021145023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021149599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021149599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021145023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2017 KLI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (Title based query)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017 - BM25 Tuning'!$J$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017 - BM25 Tuning'!$K$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017 - BM25 Tuning'!$K$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.6799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CF1-4820-90D0-EF3E739FED6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2021145023"/>
+        <c:axId val="2021149599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2021145023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021149599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021149599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021145023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>2018 training data by B parameter</a:t>
             </a:r>
             <a:br>
@@ -1334,7 +2072,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1707,6 +2445,734 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2018 IDFr</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (Title based query)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018 - BM25 Tuning'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017 - BM25 Tuning'!$C$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018 - BM25 Tuning'!$C$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AB2-4488-9C58-759018B52A8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2021145023"/>
+        <c:axId val="2021149599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2021145023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021149599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021149599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021145023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2018 KLI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (Title based query)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2293314272758285"/>
+          <c:y val="3.2992913760457342E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018 - BM25 Tuning'!$J$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017 - BM25 Tuning'!$K$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018 - BM25 Tuning'!$K$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A499-4974-A26B-953DBDB954F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2021145023"/>
+        <c:axId val="2021149599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2021145023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021149599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021149599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021145023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1867,6 +3333,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3377,6 +5003,2018 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3885,13 +7523,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>156633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3915,13 +7553,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3938,6 +7576,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4007,6 +7709,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4278,10 +8044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O30"/>
+  <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4290,22 +8056,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -4367,7 +8133,7 @@
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="8">
         <v>0.10879999999999999</v>
       </c>
       <c r="L4" s="3">
@@ -4383,155 +8149,96 @@
         <v>9.6799999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="D5">
-        <v>6.88E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6.7599999999999993E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>6.6600000000000006E-2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="L5" s="11">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="N5" s="3">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="O5" s="3">
-        <v>6.9500000000000006E-2</v>
-      </c>
+    <row r="23" spans="2:15" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="J23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.47520000000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.47239999999999999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.46760000000000002</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.4647</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.46089999999999998</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.47989999999999999</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.4773</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.47160000000000002</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.4672</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.46260000000000001</v>
-      </c>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="15"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="6">
-        <v>2.5694444444444447E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="B26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B28" s="3" t="s">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.5">
-      <c r="B30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="C25" s="11">
+        <v>8.09E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.1017</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="J25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="11">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.1012</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="N24:O25"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4541,10 +8248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O24"/>
+  <dimension ref="B2:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4553,22 +8260,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -4630,7 +8337,7 @@
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <v>0.128</v>
       </c>
       <c r="L4" s="3">
@@ -4722,18 +8429,96 @@
         <v>0.50960000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="6">
-        <v>4.5138888888888888E-2</v>
-      </c>
+    <row r="24" spans="2:15" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="J24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.1123</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.1163</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="J26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="11">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.1162</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="N26" s="14"/>
+      <c r="O26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="N25:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4759,27 +8544,27 @@
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6">
         <v>0.39930555555555558</v>
@@ -4790,30 +8575,30 @@
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6">
         <v>0.48819444444444443</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/output/Analysing.xlsx
+++ b/output/Analysing.xlsx
@@ -21,18 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>B</t>
   </si>
   <si>
     <t>MAP</t>
-  </si>
-  <si>
-    <t>P_1000</t>
-  </si>
-  <si>
-    <t>ndcg</t>
   </si>
   <si>
     <t>Tuning B parameter in BM25 (Title based query)</t>
@@ -198,13 +192,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -213,6 +201,12 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2531,7 +2525,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2018 - BM25 Tuning'!$B$25</c:f>
+              <c:f>'2018 - BM25 Tuning'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2584,7 +2578,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018 - BM25 Tuning'!$C$25:$E$25</c:f>
+              <c:f>'2018 - BM25 Tuning'!$C$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2897,7 +2891,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2018 - BM25 Tuning'!$J$25</c:f>
+              <c:f>'2018 - BM25 Tuning'!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2953,7 +2947,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018 - BM25 Tuning'!$K$25:$M$25</c:f>
+              <c:f>'2018 - BM25 Tuning'!$K$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7654,13 +7648,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>156633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7686,13 +7680,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7718,13 +7712,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>146051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7750,13 +7744,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>146051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8046,8 +8040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:G25"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8056,22 +8050,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="J2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -8150,62 +8144,62 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="J23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="J23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="13">
+      <c r="G24" s="13"/>
+      <c r="J24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="11">
         <v>0.3</v>
       </c>
-      <c r="D24" s="13">
+      <c r="L24" s="11">
         <v>0.5</v>
       </c>
-      <c r="E24" s="13">
+      <c r="M24" s="11">
         <v>0.8</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="J24" s="1" t="s">
+      <c r="N24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L24" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M24" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" s="15"/>
+      <c r="O24" s="13"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>8.09E-2</v>
       </c>
       <c r="D25" s="3">
@@ -8214,12 +8208,12 @@
       <c r="E25" s="4">
         <v>0.1017</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
       <c r="J25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>9.6799999999999997E-2</v>
       </c>
       <c r="L25" s="3">
@@ -8228,8 +8222,8 @@
       <c r="M25" s="8">
         <v>0.1012</v>
       </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8248,10 +8242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O26"/>
+  <dimension ref="B2:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8260,22 +8254,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="J2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -8353,172 +8347,96 @@
         <v>0.11310000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="D5">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5.45E-2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="L5">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="N5" s="3">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="O5" s="3">
-        <v>5.6099999999999997E-2</v>
-      </c>
+    <row r="22" spans="2:15" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="J22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.5272</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.5282</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.51559999999999995</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.52780000000000005</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.52649999999999997</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.52580000000000005</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.51759999999999995</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.50960000000000005</v>
-      </c>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="J23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="13"/>
     </row>
-    <row r="24" spans="2:15" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="B24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.1123</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.1163</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.12570000000000001</v>
+      </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="J24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="G24" s="13"/>
+      <c r="J24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.1162</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.12670000000000001</v>
+      </c>
       <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="J25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M25" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O25" s="15"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0.1123</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.1163</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.12570000000000001</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="J26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="11">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0.1162</v>
-      </c>
-      <c r="M26" s="8">
-        <v>0.12670000000000001</v>
-      </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
+      <c r="O24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="F25:G26"/>
-    <mergeCell ref="N25:O26"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="N23:O24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8544,27 +8462,27 @@
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="6">
         <v>0.39930555555555558</v>
@@ -8575,30 +8493,30 @@
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6">
         <v>0.48819444444444443</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/output/Analysing.xlsx
+++ b/output/Analysing.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647"/>
   </bookViews>
   <sheets>
-    <sheet name="2017 - BM25 Tuning" sheetId="1" r:id="rId1"/>
-    <sheet name="2018 - BM25 Tuning" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="BM25 RSJ Tuning" sheetId="5" r:id="rId1"/>
+    <sheet name="2017 - BM25 Tuning" sheetId="1" r:id="rId2"/>
+    <sheet name="2018 - BM25 Tuning" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>B</t>
   </si>
@@ -73,6 +74,24 @@
   <si>
     <t>BM25 (b=0.0)</t>
   </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>(B=0.75, K1=1.2)</t>
+  </si>
+  <si>
+    <t>(B=0.5, K1=2.0)</t>
+  </si>
+  <si>
+    <t>RF Map</t>
+  </si>
+  <si>
+    <t>Baseline Map</t>
+  </si>
+  <si>
+    <t>Tuning B and K1 parameter in PRF+BM25</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +148,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +239,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,6 +275,1374 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2017 training data by K1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> parameter</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Title based Query)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1915513210657708"/>
+          <c:y val="2.3566384463851765E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 RSJ Tuning'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF Map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BM25 RSJ Tuning'!$C$3:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>(B=0.75, K1=1.2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(B=0.5, K1=2.0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 RSJ Tuning'!$C$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7400000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EE5-4A90-A306-9815C643E792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 RSJ Tuning'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline Map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BM25 RSJ Tuning'!$C$3:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>(B=0.75, K1=1.2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(B=0.5, K1=2.0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 RSJ Tuning'!$C$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.1022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EE5-4A90-A306-9815C643E792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2021145023"/>
+        <c:axId val="2021149599"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2021145023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021149599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021149599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021145023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2018 KLI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (Title based query)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2293314272758285"/>
+          <c:y val="3.2992913760457342E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018 - BM25 Tuning'!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017 - BM25 Tuning'!$K$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018 - BM25 Tuning'!$K$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A499-4974-A26B-953DBDB954F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2021145023"/>
+        <c:axId val="2021149599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2021145023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021149599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021149599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021145023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2018 training data by K1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> parameter</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Title based Query)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 RSJ Tuning'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF Map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BM25 RSJ Tuning'!$H$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>(B=0.75, K1=1.2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(B=0.5, K1=2.0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 RSJ Tuning'!$H$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9800000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF11-4748-AFD1-26F6735E8A30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 RSJ Tuning'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline Map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BM25 RSJ Tuning'!$H$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>(B=0.75, K1=1.2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(B=0.5, K1=2.0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 RSJ Tuning'!$H$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.12659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF11-4748-AFD1-26F6735E8A30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2021145023"/>
+        <c:axId val="2021149599"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2021145023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021149599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021149599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021145023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -599,7 +2015,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -972,7 +2388,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1331,7 +2747,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1693,7 +3109,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2066,7 +3482,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2439,7 +3855,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2798,376 +4214,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2018 KLI</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (Title based query)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2293314272758285"/>
-          <c:y val="3.2992913760457342E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2018 - BM25 Tuning'!$J$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>r</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2017 - BM25 Tuning'!$K$24:$M$24</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2018 - BM25 Tuning'!$K$23:$M$23</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A499-4974-A26B-953DBDB954F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2021145023"/>
-        <c:axId val="2021149599"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2021145023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2021149599"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2021149599"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2021145023"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3487,6 +4574,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3990,7 +5117,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4493,7 +5620,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4996,7 +6123,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5499,7 +6626,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6002,7 +7129,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6505,7 +7632,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7008,7 +8135,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7511,7 +8638,1082 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1299633</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7642,7 +9844,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8038,10 +10240,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="18.05859375" customWidth="1"/>
+    <col min="2" max="2" width="17.29296875" customWidth="1"/>
+    <col min="3" max="3" width="18.5859375" customWidth="1"/>
+    <col min="4" max="4" width="16.05859375" customWidth="1"/>
+    <col min="7" max="7" width="14.05859375" customWidth="1"/>
+    <col min="8" max="8" width="17.703125" customWidth="1"/>
+    <col min="9" max="9" width="18.17578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="31" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="19">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>6.9800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.1022</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1009</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1196</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8240,12 +10544,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8444,7 +10748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G5"/>
   <sheetViews>

--- a/output/Analysing.xlsx
+++ b/output/Analysing.xlsx
@@ -227,18 +227,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,6 +244,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +567,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.1022</c:v>
+                  <c:v>0.14580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1009</c:v>
+                  <c:v>0.14580000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1079,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1689,7 +1688,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1948,7 +1946,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2062,7 +2059,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2321,7 +2317,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2433,7 +2428,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2680,7 +2674,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2792,7 +2785,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3042,7 +3034,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3156,7 +3147,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3415,7 +3405,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3529,7 +3518,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3788,7 +3776,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3900,7 +3887,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4147,7 +4133,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10243,7 +10228,7 @@
   <dimension ref="B2:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10258,71 +10243,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="15">
         <v>6.9800000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="10">
-        <v>0.1022</v>
+        <v>0.14580000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1009</v>
-      </c>
-      <c r="G5" s="21" t="s">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="18">
         <v>0.12659999999999999</v>
       </c>
       <c r="I5" s="3">
@@ -10354,22 +10339,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -10448,22 +10433,22 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="J23" s="14" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="J23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
@@ -10478,10 +10463,10 @@
       <c r="E24" s="11">
         <v>0.8</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="21"/>
       <c r="J24" s="1" t="s">
         <v>14</v>
       </c>
@@ -10494,10 +10479,10 @@
       <c r="M24" s="11">
         <v>0.8</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="13"/>
+      <c r="O24" s="21"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B25" s="3" t="s">
@@ -10512,8 +10497,8 @@
       <c r="E25" s="4">
         <v>0.1017</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="J25" s="3" t="s">
         <v>1</v>
       </c>
@@ -10526,8 +10511,8 @@
       <c r="M25" s="8">
         <v>0.1012</v>
       </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10558,22 +10543,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -10652,22 +10637,22 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.7" x14ac:dyDescent="0.5">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="J22" s="14" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="J22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
@@ -10682,10 +10667,10 @@
       <c r="E23" s="11">
         <v>0.8</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="21"/>
       <c r="J23" s="1" t="s">
         <v>14</v>
       </c>
@@ -10698,10 +10683,10 @@
       <c r="M23" s="11">
         <v>0.8</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="13"/>
+      <c r="O23" s="21"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B24" s="3" t="s">
@@ -10716,8 +10701,8 @@
       <c r="E24" s="4">
         <v>0.12570000000000001</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
       <c r="J24" s="3" t="s">
         <v>1</v>
       </c>
@@ -10730,8 +10715,8 @@
       <c r="M24" s="8">
         <v>0.12670000000000001</v>
       </c>
-      <c r="N24" s="12"/>
-      <c r="O24" s="13"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
